--- a/biology/Botanique/Jardin_Boufflers/Jardin_Boufflers.xlsx
+++ b/biology/Botanique/Jardin_Boufflers/Jardin_Boufflers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Boufflers est un jardin du centre ville de Metz situé derrière le palais de Justice, entre l’Esplanade, le boulevard Poincaré et la rue de la Garde.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’origine un jardin de la Haute-Pierre s’étend derrière la grande maison et la rue du même nom. Il sert de potager lorsque l’hôtel de la Haute-Pierre devient la demeure des gouverneurs de la province. 
 Le gouverneur des Trois-Évêchés Louis-François de Boufflers le rend public en 1687. La ville donne au jardin son nom en souvenir de cette libéralité.
@@ -544,7 +558,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa création date du remblaiement de la Citadelle de Metz aux alentours de 1815[réf. nécessaire]. Il est planté d'énormes tilleuls et chênes et offre une vue plongeante sur le plan d’eau Saint-Symphorien et l’île du Saulcy.
 Une statue équestre monumentale du sculpteur Claude Goutin rend hommage au marquis de La Fayette qui avait décidé de rejoindre l’armée révolutionnaire américaine à cet endroit. 
